--- a/tables/Grille ITEC V2015.xlsx
+++ b/tables/Grille ITEC V2015.xlsx
@@ -530,6 +530,7 @@
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
     <font>
       <b/>
@@ -571,22 +572,26 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1280,7 +1285,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1696,12 +1701,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,6 +1716,93 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1758,86 +1844,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -2256,7 +2265,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2300,7 +2309,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2337,10 +2346,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
+      <c r="A1" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="133"/>
     </row>
     <row r="2" spans="1:2" ht="12.75" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -2399,10 +2408,10 @@
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="132"/>
     </row>
     <row r="11" spans="1:2" ht="18.2" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -2417,10 +2426,10 @@
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="132"/>
     </row>
     <row r="14" spans="1:2" ht="18.2" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -2435,10 +2444,10 @@
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="132"/>
     </row>
     <row r="17" spans="1:2" ht="18.2" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -2453,10 +2462,10 @@
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="132"/>
     </row>
     <row r="20" spans="1:2" ht="18.2" customHeight="1">
       <c r="A20" s="5" t="s">
@@ -2471,10 +2480,10 @@
       <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="132"/>
     </row>
     <row r="23" spans="1:2" ht="18.2" customHeight="1">
       <c r="A23" s="5" t="s">
@@ -2489,95 +2498,95 @@
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A25" s="130" t="s">
+      <c r="A25" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="128"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="132"/>
-      <c r="B27" s="132"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="130"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="132"/>
-      <c r="B29" s="132"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="132"/>
-      <c r="B30" s="132"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="132"/>
-      <c r="B31" s="132"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="130"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="132"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="130"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="130"/>
     </row>
     <row r="34" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A34" s="130" t="s">
+      <c r="A34" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="130"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="9"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="132"/>
-      <c r="B35" s="132"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="132"/>
-      <c r="B36" s="132"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="130"/>
       <c r="C36" s="9"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="132"/>
-      <c r="B37" s="132"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="130"/>
       <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="132"/>
-      <c r="B38" s="132"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="132"/>
-      <c r="B39" s="132"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="130"/>
       <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="132"/>
-      <c r="B40" s="132"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="130"/>
       <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="132"/>
-      <c r="B41" s="132"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="130"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="132"/>
-      <c r="B42" s="132"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="130"/>
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="130"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -2587,8 +2596,8 @@
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1">
-      <c r="A44" s="133"/>
-      <c r="B44" s="133"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -2598,8 +2607,8 @@
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1">
-      <c r="A45" s="133"/>
-      <c r="B45" s="133"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -2609,8 +2618,8 @@
       <c r="I45" s="9"/>
     </row>
     <row r="46" spans="1:9" s="10" customFormat="1">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="131"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -2620,8 +2629,8 @@
       <c r="I46" s="9"/>
     </row>
     <row r="47" spans="1:9" s="10" customFormat="1">
-      <c r="A47" s="133"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="131"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -2631,8 +2640,8 @@
       <c r="I47" s="9"/>
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1">
-      <c r="A48" s="133"/>
-      <c r="B48" s="133"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="131"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -2641,8 +2650,8 @@
       <c r="I48" s="9"/>
     </row>
     <row r="49" spans="1:9" s="10" customFormat="1">
-      <c r="A49" s="133"/>
-      <c r="B49" s="133"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="131"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -2651,8 +2660,8 @@
       <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1">
-      <c r="A50" s="133"/>
-      <c r="B50" s="133"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="131"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -2661,8 +2670,8 @@
       <c r="I50" s="9"/>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1">
-      <c r="A51" s="133"/>
-      <c r="B51" s="133"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="131"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -2671,10 +2680,10 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="130"/>
+      <c r="B52" s="128"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -2683,8 +2692,8 @@
       <c r="I52" s="9"/>
     </row>
     <row r="53" spans="1:9" s="10" customFormat="1">
-      <c r="A53" s="131"/>
-      <c r="B53" s="131"/>
+      <c r="A53" s="129"/>
+      <c r="B53" s="129"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -2693,8 +2702,8 @@
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" s="10" customFormat="1">
-      <c r="A54" s="131"/>
-      <c r="B54" s="131"/>
+      <c r="A54" s="129"/>
+      <c r="B54" s="129"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -2703,8 +2712,8 @@
       <c r="I54" s="9"/>
     </row>
     <row r="55" spans="1:9" s="10" customFormat="1">
-      <c r="A55" s="131"/>
-      <c r="B55" s="131"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="129"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -2713,8 +2722,8 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9" s="10" customFormat="1">
-      <c r="A56" s="131"/>
-      <c r="B56" s="131"/>
+      <c r="A56" s="129"/>
+      <c r="B56" s="129"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -2723,8 +2732,8 @@
       <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9" s="10" customFormat="1">
-      <c r="A57" s="131"/>
-      <c r="B57" s="131"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="129"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -2733,8 +2742,8 @@
       <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9" s="10" customFormat="1">
-      <c r="A58" s="131"/>
-      <c r="B58" s="131"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="129"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -2743,8 +2752,8 @@
       <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9" s="10" customFormat="1">
-      <c r="A59" s="131"/>
-      <c r="B59" s="131"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="129"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -2753,8 +2762,8 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" s="10" customFormat="1">
-      <c r="A60" s="131"/>
-      <c r="B60" s="131"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="129"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -2765,6 +2774,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B60"/>
     <mergeCell ref="A25:B25"/>
@@ -2773,12 +2788,6 @@
     <mergeCell ref="A35:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B51"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2802,7 +2811,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2887,10 +2896,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="163"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
@@ -2924,16 +2933,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="32"/>
       <c r="J5" s="117">
         <v>0.4</v>
@@ -2952,10 +2961,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="143" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -2973,7 +2982,7 @@
       <c r="J6" s="115">
         <v>1</v>
       </c>
-      <c r="K6" s="166">
+      <c r="K6" s="134">
         <f>SUM(M6:M8)</f>
         <v>0</v>
       </c>
@@ -2992,8 +3001,8 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="87" t="s">
         <v>94</v>
       </c>
@@ -3009,7 +3018,7 @@
       <c r="J7" s="115">
         <v>1</v>
       </c>
-      <c r="K7" s="167"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3024,16 +3033,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="str">
         <f>(IF(O8&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
@@ -3041,7 +3050,7 @@
       <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="168"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3056,10 +3065,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="145" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -3077,7 +3086,7 @@
       <c r="J9" s="115">
         <v>1</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="134">
         <f>SUM(M9:M12)</f>
         <v>0</v>
       </c>
@@ -3095,8 +3104,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="35" t="s">
         <v>40</v>
       </c>
@@ -3112,7 +3121,7 @@
       <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="167"/>
+      <c r="K10" s="135"/>
       <c r="L10" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3127,8 +3136,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="83" t="s">
         <v>41</v>
       </c>
@@ -3144,7 +3153,7 @@
       <c r="J11" s="115">
         <v>1</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3159,8 +3168,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
@@ -3176,7 +3185,7 @@
       <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3191,10 +3200,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="145" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -3212,7 +3221,7 @@
       <c r="J13" s="115">
         <v>1</v>
       </c>
-      <c r="K13" s="166">
+      <c r="K13" s="134">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -3230,8 +3239,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
@@ -3247,7 +3256,7 @@
       <c r="J14" s="115">
         <v>1</v>
       </c>
-      <c r="K14" s="167"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3262,8 +3271,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="39" t="s">
         <v>47</v>
       </c>
@@ -3279,7 +3288,7 @@
       <c r="J15" s="115">
         <v>1</v>
       </c>
-      <c r="K15" s="168"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3294,10 +3303,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="145" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -3315,7 +3324,7 @@
       <c r="J16" s="115">
         <v>1</v>
       </c>
-      <c r="K16" s="169">
+      <c r="K16" s="137">
         <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
@@ -3333,8 +3342,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="39" t="s">
         <v>51</v>
       </c>
@@ -3350,7 +3359,7 @@
       <c r="J17" s="115">
         <v>1</v>
       </c>
-      <c r="K17" s="170"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3365,16 +3374,16 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="34"/>
       <c r="J18" s="117">
         <v>0.4</v>
@@ -3394,10 +3403,10 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="148" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="43" t="s">
@@ -3415,7 +3424,7 @@
       <c r="J19" s="115">
         <v>1</v>
       </c>
-      <c r="K19" s="170">
+      <c r="K19" s="138">
         <f>SUM(M19:M20)</f>
         <v>0</v>
       </c>
@@ -3433,8 +3442,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="48" t="s">
         <v>55</v>
       </c>
@@ -3450,7 +3459,7 @@
       <c r="J20" s="115">
         <v>1</v>
       </c>
-      <c r="K20" s="170"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3465,10 +3474,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="145" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -3486,7 +3495,7 @@
       <c r="J21" s="115">
         <v>1</v>
       </c>
-      <c r="K21" s="170">
+      <c r="K21" s="138">
         <f>SUM(M21:M24)</f>
         <v>0</v>
       </c>
@@ -3504,8 +3513,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="82" t="s">
         <v>59</v>
       </c>
@@ -3521,7 +3530,7 @@
       <c r="J22" s="115">
         <v>1</v>
       </c>
-      <c r="K22" s="170"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3536,8 +3545,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="43" t="s">
         <v>96</v>
       </c>
@@ -3553,7 +3562,7 @@
       <c r="J23" s="115">
         <v>1</v>
       </c>
-      <c r="K23" s="170"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3568,8 +3577,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="82" t="s">
         <v>97</v>
       </c>
@@ -3585,7 +3594,7 @@
       <c r="J24" s="115">
         <v>1</v>
       </c>
-      <c r="K24" s="170"/>
+      <c r="K24" s="138"/>
       <c r="L24" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3600,10 +3609,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="145" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -3621,7 +3630,7 @@
       <c r="J25" s="115">
         <v>1</v>
       </c>
-      <c r="K25" s="170">
+      <c r="K25" s="138">
         <f>SUM(M25:M27)</f>
         <v>0</v>
       </c>
@@ -3639,8 +3648,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="94" t="s">
         <v>102</v>
       </c>
@@ -3656,7 +3665,7 @@
       <c r="J26" s="115">
         <v>1</v>
       </c>
-      <c r="K26" s="170"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3671,8 +3680,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="57" t="s">
         <v>103</v>
       </c>
@@ -3688,7 +3697,7 @@
       <c r="J27" s="115">
         <v>1</v>
       </c>
-      <c r="K27" s="170"/>
+      <c r="K27" s="138"/>
       <c r="L27" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3703,10 +3712,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="145" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -3724,7 +3733,7 @@
       <c r="J28" s="115">
         <v>1</v>
       </c>
-      <c r="K28" s="170">
+      <c r="K28" s="138">
         <f>SUM(M28:M30)</f>
         <v>0</v>
       </c>
@@ -3742,8 +3751,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="57" t="s">
         <v>66</v>
       </c>
@@ -3759,7 +3768,7 @@
       <c r="J29" s="115">
         <v>1</v>
       </c>
-      <c r="K29" s="170"/>
+      <c r="K29" s="138"/>
       <c r="L29" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3774,8 +3783,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="82" t="s">
         <v>62</v>
       </c>
@@ -3791,7 +3800,7 @@
       <c r="J30" s="115">
         <v>1</v>
       </c>
-      <c r="K30" s="170"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -3806,16 +3815,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="34"/>
       <c r="J31" s="117">
         <v>0.2</v>
@@ -3835,10 +3844,10 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="145" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -3856,7 +3865,7 @@
       <c r="J32" s="116">
         <v>1</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="139">
         <f>SUM(M32:M33)</f>
         <v>0</v>
       </c>
@@ -3874,8 +3883,8 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="56" t="s">
         <v>71</v>
       </c>
@@ -3891,7 +3900,7 @@
       <c r="J33" s="116">
         <v>1</v>
       </c>
-      <c r="K33" s="171"/>
+      <c r="K33" s="139"/>
       <c r="L33" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -3906,10 +3915,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="151" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="57" t="s">
@@ -3927,7 +3936,7 @@
       <c r="J34" s="116">
         <v>1</v>
       </c>
-      <c r="K34" s="171">
+      <c r="K34" s="139">
         <f>SUM(M34:M36)</f>
         <v>0</v>
       </c>
@@ -3945,8 +3954,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="82" t="s">
         <v>74</v>
       </c>
@@ -3962,7 +3971,7 @@
       <c r="J35" s="116">
         <v>1</v>
       </c>
-      <c r="K35" s="171"/>
+      <c r="K35" s="139"/>
       <c r="L35" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -3977,8 +3986,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="57" t="s">
         <v>75</v>
       </c>
@@ -3994,7 +4003,7 @@
       <c r="J36" s="116">
         <v>1</v>
       </c>
-      <c r="K36" s="171"/>
+      <c r="K36" s="139"/>
       <c r="L36" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4009,10 +4018,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="155" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="82" t="s">
@@ -4030,7 +4039,7 @@
       <c r="J37" s="116">
         <v>1</v>
       </c>
-      <c r="K37" s="171">
+      <c r="K37" s="139">
         <f>SUM(M37:M40)</f>
         <v>0</v>
       </c>
@@ -4048,8 +4057,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="57" t="s">
         <v>79</v>
       </c>
@@ -4065,7 +4074,7 @@
       <c r="J38" s="116">
         <v>1</v>
       </c>
-      <c r="K38" s="171"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4080,8 +4089,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="82" t="s">
         <v>80</v>
       </c>
@@ -4097,7 +4106,7 @@
       <c r="J39" s="116">
         <v>1</v>
       </c>
-      <c r="K39" s="171"/>
+      <c r="K39" s="139"/>
       <c r="L39" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4112,8 +4121,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="148"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="57" t="s">
         <v>62</v>
       </c>
@@ -4129,7 +4138,7 @@
       <c r="J40" s="116">
         <v>1</v>
       </c>
-      <c r="K40" s="171"/>
+      <c r="K40" s="139"/>
       <c r="L40" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -4184,7 +4193,7 @@
         <f>(IF(E42&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J42" s="155"/>
+      <c r="J42" s="149"/>
       <c r="K42" s="113"/>
       <c r="L42" s="109"/>
     </row>
@@ -4203,7 +4212,7 @@
         <f>(IF(E43&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J43" s="155"/>
+      <c r="J43" s="149"/>
       <c r="K43" s="113"/>
       <c r="L43" s="109"/>
     </row>
@@ -4212,15 +4221,15 @@
         <v>84</v>
       </c>
       <c r="D44" s="63"/>
-      <c r="E44" s="151" t="str">
+      <c r="E44" s="156" t="str">
         <f>IF(OR(E41&lt;0.5,E42&lt;0.5,E43&lt;0.5),"Tx&lt;50",IF(O41&lt;&gt;33,"Erreur",(K5+K18+K31)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F44" s="151"/>
-      <c r="G44" s="152" t="s">
+      <c r="F44" s="156"/>
+      <c r="G44" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="152"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -4228,81 +4237,81 @@
         <v>87</v>
       </c>
       <c r="D45" s="63"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154" t="s">
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="154"/>
+      <c r="H45" s="159"/>
       <c r="I45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="C46" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="146">
+      <c r="E46" s="152">
         <f>IF(V41&lt;&gt;0,"",E45*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147">
+      <c r="F46" s="152"/>
+      <c r="G46" s="153">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H46" s="147"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
       <c r="I47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
       <c r="A48" s="68"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="137" t="str">
+      <c r="C48" s="163" t="str">
         <f>(IF(O41&gt;33,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
       <c r="I48" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
       <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:13" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
       <c r="I50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
@@ -4317,57 +4326,57 @@
       <c r="I51" s="73"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="74" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="75"/>
-      <c r="E52" s="142" t="s">
+      <c r="E52" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="77"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
       <c r="I53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="77"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="77"/>
     </row>
     <row r="56" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A56" s="143"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="79"/>
-      <c r="E57" s="135">
+      <c r="E57" s="161">
         <v>41892</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="81" t="s">
         <v>106</v>
       </c>
@@ -4380,53 +4389,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="A47:H47"/>
@@ -4441,6 +4403,53 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K36"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -4464,7 +4473,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4549,10 +4558,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="163"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
@@ -4586,16 +4595,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="32"/>
       <c r="J5" s="117">
         <v>0.4</v>
@@ -4614,10 +4623,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="143" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -4635,7 +4644,7 @@
       <c r="J6" s="115">
         <v>1</v>
       </c>
-      <c r="K6" s="166">
+      <c r="K6" s="134">
         <f>SUM(M6:M8)</f>
         <v>0</v>
       </c>
@@ -4654,8 +4663,8 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="87" t="s">
         <v>94</v>
       </c>
@@ -4671,7 +4680,7 @@
       <c r="J7" s="115">
         <v>1</v>
       </c>
-      <c r="K7" s="167"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4686,16 +4695,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="str">
         <f>(IF(O8&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
@@ -4703,7 +4712,7 @@
       <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="168"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4718,10 +4727,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="145" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -4739,7 +4748,7 @@
       <c r="J9" s="115">
         <v>1</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="134">
         <f>SUM(M9:M12)</f>
         <v>0</v>
       </c>
@@ -4757,8 +4766,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="35" t="s">
         <v>40</v>
       </c>
@@ -4774,7 +4783,7 @@
       <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="167"/>
+      <c r="K10" s="135"/>
       <c r="L10" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4789,8 +4798,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="83" t="s">
         <v>41</v>
       </c>
@@ -4806,7 +4815,7 @@
       <c r="J11" s="115">
         <v>1</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4821,8 +4830,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
@@ -4838,7 +4847,7 @@
       <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4853,10 +4862,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="145" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -4874,7 +4883,7 @@
       <c r="J13" s="115">
         <v>1</v>
       </c>
-      <c r="K13" s="166">
+      <c r="K13" s="134">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -4892,8 +4901,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
@@ -4909,7 +4918,7 @@
       <c r="J14" s="115">
         <v>1</v>
       </c>
-      <c r="K14" s="167"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4924,8 +4933,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="39" t="s">
         <v>47</v>
       </c>
@@ -4941,7 +4950,7 @@
       <c r="J15" s="115">
         <v>1</v>
       </c>
-      <c r="K15" s="168"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4956,10 +4965,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="145" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -4977,7 +4986,7 @@
       <c r="J16" s="115">
         <v>1</v>
       </c>
-      <c r="K16" s="169">
+      <c r="K16" s="137">
         <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
@@ -4995,8 +5004,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="39" t="s">
         <v>51</v>
       </c>
@@ -5012,7 +5021,7 @@
       <c r="J17" s="115">
         <v>1</v>
       </c>
-      <c r="K17" s="170"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5027,16 +5036,16 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="34"/>
       <c r="J18" s="117">
         <v>0.4</v>
@@ -5056,10 +5065,10 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="148" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="43" t="s">
@@ -5077,7 +5086,7 @@
       <c r="J19" s="115">
         <v>1</v>
       </c>
-      <c r="K19" s="170">
+      <c r="K19" s="138">
         <f>SUM(M19:M20)</f>
         <v>0</v>
       </c>
@@ -5095,8 +5104,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="48" t="s">
         <v>55</v>
       </c>
@@ -5112,7 +5121,7 @@
       <c r="J20" s="115">
         <v>1</v>
       </c>
-      <c r="K20" s="170"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5127,10 +5136,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="145" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -5148,7 +5157,7 @@
       <c r="J21" s="115">
         <v>1</v>
       </c>
-      <c r="K21" s="170">
+      <c r="K21" s="138">
         <f>SUM(M21:M24)</f>
         <v>0</v>
       </c>
@@ -5166,8 +5175,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="82" t="s">
         <v>59</v>
       </c>
@@ -5183,7 +5192,7 @@
       <c r="J22" s="115">
         <v>1</v>
       </c>
-      <c r="K22" s="170"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5198,8 +5207,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="43" t="s">
         <v>96</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="J23" s="115">
         <v>1</v>
       </c>
-      <c r="K23" s="170"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5230,8 +5239,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="82" t="s">
         <v>97</v>
       </c>
@@ -5247,7 +5256,7 @@
       <c r="J24" s="115">
         <v>1</v>
       </c>
-      <c r="K24" s="170"/>
+      <c r="K24" s="138"/>
       <c r="L24" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5262,10 +5271,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="145" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -5283,7 +5292,7 @@
       <c r="J25" s="115">
         <v>1</v>
       </c>
-      <c r="K25" s="170">
+      <c r="K25" s="138">
         <f>SUM(M25:M27)</f>
         <v>0</v>
       </c>
@@ -5301,8 +5310,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="94" t="s">
         <v>102</v>
       </c>
@@ -5318,7 +5327,7 @@
       <c r="J26" s="115">
         <v>1</v>
       </c>
-      <c r="K26" s="170"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5333,8 +5342,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="57" t="s">
         <v>103</v>
       </c>
@@ -5350,7 +5359,7 @@
       <c r="J27" s="115">
         <v>1</v>
       </c>
-      <c r="K27" s="170"/>
+      <c r="K27" s="138"/>
       <c r="L27" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5365,10 +5374,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="145" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -5386,7 +5395,7 @@
       <c r="J28" s="115">
         <v>1</v>
       </c>
-      <c r="K28" s="170">
+      <c r="K28" s="138">
         <f>SUM(M28:M30)</f>
         <v>0</v>
       </c>
@@ -5404,8 +5413,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="57" t="s">
         <v>66</v>
       </c>
@@ -5421,7 +5430,7 @@
       <c r="J29" s="115">
         <v>1</v>
       </c>
-      <c r="K29" s="170"/>
+      <c r="K29" s="138"/>
       <c r="L29" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5436,8 +5445,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="82" t="s">
         <v>62</v>
       </c>
@@ -5453,7 +5462,7 @@
       <c r="J30" s="115">
         <v>1</v>
       </c>
-      <c r="K30" s="170"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -5468,16 +5477,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="34"/>
       <c r="J31" s="117">
         <v>0.2</v>
@@ -5497,10 +5506,10 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="145" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -5518,7 +5527,7 @@
       <c r="J32" s="116">
         <v>1</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="139">
         <f>SUM(M32:M33)</f>
         <v>0</v>
       </c>
@@ -5536,8 +5545,8 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="56" t="s">
         <v>71</v>
       </c>
@@ -5553,7 +5562,7 @@
       <c r="J33" s="116">
         <v>1</v>
       </c>
-      <c r="K33" s="171"/>
+      <c r="K33" s="139"/>
       <c r="L33" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -5568,10 +5577,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="151" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="57" t="s">
@@ -5589,7 +5598,7 @@
       <c r="J34" s="116">
         <v>1</v>
       </c>
-      <c r="K34" s="171">
+      <c r="K34" s="139">
         <f>SUM(M34:M36)</f>
         <v>0</v>
       </c>
@@ -5607,8 +5616,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="82" t="s">
         <v>74</v>
       </c>
@@ -5624,7 +5633,7 @@
       <c r="J35" s="116">
         <v>1</v>
       </c>
-      <c r="K35" s="171"/>
+      <c r="K35" s="139"/>
       <c r="L35" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -5639,8 +5648,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="57" t="s">
         <v>75</v>
       </c>
@@ -5656,7 +5665,7 @@
       <c r="J36" s="116">
         <v>1</v>
       </c>
-      <c r="K36" s="171"/>
+      <c r="K36" s="139"/>
       <c r="L36" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -5671,10 +5680,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="155" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="82" t="s">
@@ -5692,7 +5701,7 @@
       <c r="J37" s="116">
         <v>1</v>
       </c>
-      <c r="K37" s="171">
+      <c r="K37" s="139">
         <f>SUM(M37:M40)</f>
         <v>0</v>
       </c>
@@ -5710,8 +5719,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="57" t="s">
         <v>79</v>
       </c>
@@ -5727,7 +5736,7 @@
       <c r="J38" s="116">
         <v>1</v>
       </c>
-      <c r="K38" s="171"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -5742,8 +5751,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="82" t="s">
         <v>80</v>
       </c>
@@ -5759,7 +5768,7 @@
       <c r="J39" s="116">
         <v>1</v>
       </c>
-      <c r="K39" s="171"/>
+      <c r="K39" s="139"/>
       <c r="L39" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -5774,8 +5783,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="148"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="57" t="s">
         <v>62</v>
       </c>
@@ -5791,7 +5800,7 @@
       <c r="J40" s="116">
         <v>1</v>
       </c>
-      <c r="K40" s="171"/>
+      <c r="K40" s="139"/>
       <c r="L40" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -5846,7 +5855,7 @@
         <f>(IF(E42&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J42" s="155"/>
+      <c r="J42" s="149"/>
       <c r="K42" s="126"/>
       <c r="L42" s="109"/>
     </row>
@@ -5865,7 +5874,7 @@
         <f>(IF(E43&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J43" s="155"/>
+      <c r="J43" s="149"/>
       <c r="K43" s="126"/>
       <c r="L43" s="109"/>
     </row>
@@ -5874,15 +5883,15 @@
         <v>84</v>
       </c>
       <c r="D44" s="63"/>
-      <c r="E44" s="151" t="str">
+      <c r="E44" s="156" t="str">
         <f>IF(OR(E41&lt;0.5,E42&lt;0.5,E43&lt;0.5),"Tx&lt;50",IF(O41&lt;&gt;33,"Erreur",(K5+K18+K31)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F44" s="151"/>
-      <c r="G44" s="152" t="s">
+      <c r="F44" s="156"/>
+      <c r="G44" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="152"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -5890,81 +5899,81 @@
         <v>87</v>
       </c>
       <c r="D45" s="63"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154" t="s">
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="154"/>
+      <c r="H45" s="159"/>
       <c r="I45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="C46" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="146">
+      <c r="E46" s="152">
         <f>IF(V41&lt;&gt;0,"",E45*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147">
+      <c r="F46" s="152"/>
+      <c r="G46" s="153">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H46" s="147"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
       <c r="I47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
       <c r="A48" s="68"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="137" t="str">
+      <c r="C48" s="163" t="str">
         <f>(IF(O41&gt;33,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
       <c r="I48" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
       <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:13" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
       <c r="I50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
@@ -5979,57 +5988,57 @@
       <c r="I51" s="73"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="74" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="75"/>
-      <c r="E52" s="142" t="s">
+      <c r="E52" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="77"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
       <c r="I53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="77"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="77"/>
     </row>
     <row r="56" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A56" s="143"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="79"/>
-      <c r="E57" s="135">
+      <c r="E57" s="161">
         <v>41892</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="81" t="s">
         <v>106</v>
       </c>
@@ -6042,6 +6051,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="A47:H47"/>
@@ -6056,53 +6112,6 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -6121,7 +6130,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -6206,10 +6215,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="163"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
@@ -6243,16 +6252,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="32"/>
       <c r="J5" s="117">
         <v>0.4</v>
@@ -6271,10 +6280,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="143" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -6292,7 +6301,7 @@
       <c r="J6" s="115">
         <v>1</v>
       </c>
-      <c r="K6" s="166">
+      <c r="K6" s="134">
         <f>SUM(M6:M8)</f>
         <v>0</v>
       </c>
@@ -6311,8 +6320,8 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="87" t="s">
         <v>94</v>
       </c>
@@ -6328,7 +6337,7 @@
       <c r="J7" s="115">
         <v>1</v>
       </c>
-      <c r="K7" s="167"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6343,16 +6352,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="str">
         <f>(IF(O8&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
@@ -6360,7 +6369,7 @@
       <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="168"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6375,10 +6384,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="145" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -6396,7 +6405,7 @@
       <c r="J9" s="115">
         <v>1</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="134">
         <f>SUM(M9:M12)</f>
         <v>0</v>
       </c>
@@ -6414,8 +6423,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="35" t="s">
         <v>40</v>
       </c>
@@ -6431,7 +6440,7 @@
       <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="167"/>
+      <c r="K10" s="135"/>
       <c r="L10" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6446,8 +6455,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="83" t="s">
         <v>41</v>
       </c>
@@ -6463,7 +6472,7 @@
       <c r="J11" s="115">
         <v>1</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6478,8 +6487,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
@@ -6495,7 +6504,7 @@
       <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6510,10 +6519,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="145" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -6531,7 +6540,7 @@
       <c r="J13" s="115">
         <v>1</v>
       </c>
-      <c r="K13" s="166">
+      <c r="K13" s="134">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -6549,8 +6558,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
@@ -6566,7 +6575,7 @@
       <c r="J14" s="115">
         <v>1</v>
       </c>
-      <c r="K14" s="167"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6581,8 +6590,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="39" t="s">
         <v>47</v>
       </c>
@@ -6598,7 +6607,7 @@
       <c r="J15" s="115">
         <v>1</v>
       </c>
-      <c r="K15" s="168"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6613,10 +6622,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="145" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -6634,7 +6643,7 @@
       <c r="J16" s="115">
         <v>1</v>
       </c>
-      <c r="K16" s="169">
+      <c r="K16" s="137">
         <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
@@ -6652,8 +6661,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="39" t="s">
         <v>51</v>
       </c>
@@ -6669,7 +6678,7 @@
       <c r="J17" s="115">
         <v>1</v>
       </c>
-      <c r="K17" s="170"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -6684,16 +6693,16 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="34"/>
       <c r="J18" s="117">
         <v>0.4</v>
@@ -6713,10 +6722,10 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="148" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="43" t="s">
@@ -6734,7 +6743,7 @@
       <c r="J19" s="115">
         <v>1</v>
       </c>
-      <c r="K19" s="170">
+      <c r="K19" s="138">
         <f>SUM(M19:M20)</f>
         <v>0</v>
       </c>
@@ -6752,8 +6761,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="48" t="s">
         <v>55</v>
       </c>
@@ -6769,7 +6778,7 @@
       <c r="J20" s="115">
         <v>1</v>
       </c>
-      <c r="K20" s="170"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6784,10 +6793,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="145" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -6805,7 +6814,7 @@
       <c r="J21" s="115">
         <v>1</v>
       </c>
-      <c r="K21" s="170">
+      <c r="K21" s="138">
         <f>SUM(M21:M24)</f>
         <v>0</v>
       </c>
@@ -6823,8 +6832,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="82" t="s">
         <v>59</v>
       </c>
@@ -6840,7 +6849,7 @@
       <c r="J22" s="115">
         <v>1</v>
       </c>
-      <c r="K22" s="170"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6855,8 +6864,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="43" t="s">
         <v>96</v>
       </c>
@@ -6872,7 +6881,7 @@
       <c r="J23" s="115">
         <v>1</v>
       </c>
-      <c r="K23" s="170"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6887,8 +6896,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="82" t="s">
         <v>97</v>
       </c>
@@ -6904,7 +6913,7 @@
       <c r="J24" s="115">
         <v>1</v>
       </c>
-      <c r="K24" s="170"/>
+      <c r="K24" s="138"/>
       <c r="L24" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6919,10 +6928,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="145" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -6940,7 +6949,7 @@
       <c r="J25" s="115">
         <v>1</v>
       </c>
-      <c r="K25" s="170">
+      <c r="K25" s="138">
         <f>SUM(M25:M27)</f>
         <v>0</v>
       </c>
@@ -6958,8 +6967,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="94" t="s">
         <v>102</v>
       </c>
@@ -6975,7 +6984,7 @@
       <c r="J26" s="115">
         <v>1</v>
       </c>
-      <c r="K26" s="170"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -6990,8 +6999,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="57" t="s">
         <v>103</v>
       </c>
@@ -7007,7 +7016,7 @@
       <c r="J27" s="115">
         <v>1</v>
       </c>
-      <c r="K27" s="170"/>
+      <c r="K27" s="138"/>
       <c r="L27" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -7022,10 +7031,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="145" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -7043,7 +7052,7 @@
       <c r="J28" s="115">
         <v>1</v>
       </c>
-      <c r="K28" s="170">
+      <c r="K28" s="138">
         <f>SUM(M28:M30)</f>
         <v>0</v>
       </c>
@@ -7061,8 +7070,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="57" t="s">
         <v>66</v>
       </c>
@@ -7078,7 +7087,7 @@
       <c r="J29" s="115">
         <v>1</v>
       </c>
-      <c r="K29" s="170"/>
+      <c r="K29" s="138"/>
       <c r="L29" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -7093,8 +7102,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="82" t="s">
         <v>62</v>
       </c>
@@ -7110,7 +7119,7 @@
       <c r="J30" s="115">
         <v>1</v>
       </c>
-      <c r="K30" s="170"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -7125,16 +7134,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="34"/>
       <c r="J31" s="117">
         <v>0.2</v>
@@ -7154,10 +7163,10 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="145" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -7175,7 +7184,7 @@
       <c r="J32" s="116">
         <v>1</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="139">
         <f>SUM(M32:M33)</f>
         <v>0</v>
       </c>
@@ -7193,8 +7202,8 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="56" t="s">
         <v>71</v>
       </c>
@@ -7210,7 +7219,7 @@
       <c r="J33" s="116">
         <v>1</v>
       </c>
-      <c r="K33" s="171"/>
+      <c r="K33" s="139"/>
       <c r="L33" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -7225,10 +7234,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="151" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="57" t="s">
@@ -7246,7 +7255,7 @@
       <c r="J34" s="116">
         <v>1</v>
       </c>
-      <c r="K34" s="171">
+      <c r="K34" s="139">
         <f>SUM(M34:M36)</f>
         <v>0</v>
       </c>
@@ -7264,8 +7273,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="82" t="s">
         <v>74</v>
       </c>
@@ -7281,7 +7290,7 @@
       <c r="J35" s="116">
         <v>1</v>
       </c>
-      <c r="K35" s="171"/>
+      <c r="K35" s="139"/>
       <c r="L35" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -7296,8 +7305,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="57" t="s">
         <v>75</v>
       </c>
@@ -7313,7 +7322,7 @@
       <c r="J36" s="116">
         <v>1</v>
       </c>
-      <c r="K36" s="171"/>
+      <c r="K36" s="139"/>
       <c r="L36" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -7328,10 +7337,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="155" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="82" t="s">
@@ -7349,7 +7358,7 @@
       <c r="J37" s="116">
         <v>1</v>
       </c>
-      <c r="K37" s="171">
+      <c r="K37" s="139">
         <f>SUM(M37:M40)</f>
         <v>0</v>
       </c>
@@ -7367,8 +7376,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="57" t="s">
         <v>79</v>
       </c>
@@ -7384,7 +7393,7 @@
       <c r="J38" s="116">
         <v>1</v>
       </c>
-      <c r="K38" s="171"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -7399,8 +7408,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="82" t="s">
         <v>80</v>
       </c>
@@ -7416,7 +7425,7 @@
       <c r="J39" s="116">
         <v>1</v>
       </c>
-      <c r="K39" s="171"/>
+      <c r="K39" s="139"/>
       <c r="L39" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -7431,8 +7440,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="148"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="57" t="s">
         <v>62</v>
       </c>
@@ -7448,7 +7457,7 @@
       <c r="J40" s="116">
         <v>1</v>
       </c>
-      <c r="K40" s="171"/>
+      <c r="K40" s="139"/>
       <c r="L40" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -7503,7 +7512,7 @@
         <f>(IF(E42&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J42" s="155"/>
+      <c r="J42" s="149"/>
       <c r="K42" s="126"/>
       <c r="L42" s="109"/>
     </row>
@@ -7522,7 +7531,7 @@
         <f>(IF(E43&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J43" s="155"/>
+      <c r="J43" s="149"/>
       <c r="K43" s="126"/>
       <c r="L43" s="109"/>
     </row>
@@ -7531,15 +7540,15 @@
         <v>84</v>
       </c>
       <c r="D44" s="63"/>
-      <c r="E44" s="151" t="str">
+      <c r="E44" s="156" t="str">
         <f>IF(OR(E41&lt;0.5,E42&lt;0.5,E43&lt;0.5),"Tx&lt;50",IF(O41&lt;&gt;33,"Erreur",(K5+K18+K31)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F44" s="151"/>
-      <c r="G44" s="152" t="s">
+      <c r="F44" s="156"/>
+      <c r="G44" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="152"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -7547,81 +7556,81 @@
         <v>87</v>
       </c>
       <c r="D45" s="63"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154" t="s">
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="154"/>
+      <c r="H45" s="159"/>
       <c r="I45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="C46" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="146">
+      <c r="E46" s="152">
         <f>IF(V41&lt;&gt;0,"",E45*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147">
+      <c r="F46" s="152"/>
+      <c r="G46" s="153">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H46" s="147"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
       <c r="I47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
       <c r="A48" s="68"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="137" t="str">
+      <c r="C48" s="163" t="str">
         <f>(IF(O41&gt;33,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
       <c r="I48" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
       <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:13" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
       <c r="I50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
@@ -7636,57 +7645,57 @@
       <c r="I51" s="73"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="74" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="75"/>
-      <c r="E52" s="142" t="s">
+      <c r="E52" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="77"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
       <c r="I53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="77"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="77"/>
     </row>
     <row r="56" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A56" s="143"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="79"/>
-      <c r="E57" s="135">
+      <c r="E57" s="161">
         <v>41892</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="81" t="s">
         <v>106</v>
       </c>
@@ -7699,6 +7708,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="A47:H47"/>
@@ -7713,53 +7769,6 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -7778,7 +7787,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -7863,10 +7872,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="163"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
@@ -7900,16 +7909,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="32"/>
       <c r="J5" s="117">
         <v>0.4</v>
@@ -7928,10 +7937,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="143" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -7949,7 +7958,7 @@
       <c r="J6" s="115">
         <v>1</v>
       </c>
-      <c r="K6" s="166">
+      <c r="K6" s="134">
         <f>SUM(M6:M8)</f>
         <v>0</v>
       </c>
@@ -7968,8 +7977,8 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="87" t="s">
         <v>94</v>
       </c>
@@ -7985,7 +7994,7 @@
       <c r="J7" s="115">
         <v>1</v>
       </c>
-      <c r="K7" s="167"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8000,16 +8009,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="str">
         <f>(IF(O8&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
@@ -8017,7 +8026,7 @@
       <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="168"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8032,10 +8041,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="145" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -8053,7 +8062,7 @@
       <c r="J9" s="115">
         <v>1</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="134">
         <f>SUM(M9:M12)</f>
         <v>0</v>
       </c>
@@ -8071,8 +8080,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="35" t="s">
         <v>40</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="167"/>
+      <c r="K10" s="135"/>
       <c r="L10" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8103,8 +8112,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="83" t="s">
         <v>41</v>
       </c>
@@ -8120,7 +8129,7 @@
       <c r="J11" s="115">
         <v>1</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8135,8 +8144,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
@@ -8152,7 +8161,7 @@
       <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8167,10 +8176,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="145" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -8188,7 +8197,7 @@
       <c r="J13" s="115">
         <v>1</v>
       </c>
-      <c r="K13" s="166">
+      <c r="K13" s="134">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -8206,8 +8215,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
@@ -8223,7 +8232,7 @@
       <c r="J14" s="115">
         <v>1</v>
       </c>
-      <c r="K14" s="167"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8238,8 +8247,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="39" t="s">
         <v>47</v>
       </c>
@@ -8255,7 +8264,7 @@
       <c r="J15" s="115">
         <v>1</v>
       </c>
-      <c r="K15" s="168"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8270,10 +8279,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="145" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -8291,7 +8300,7 @@
       <c r="J16" s="115">
         <v>1</v>
       </c>
-      <c r="K16" s="169">
+      <c r="K16" s="137">
         <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
@@ -8309,8 +8318,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="39" t="s">
         <v>51</v>
       </c>
@@ -8326,7 +8335,7 @@
       <c r="J17" s="115">
         <v>1</v>
       </c>
-      <c r="K17" s="170"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -8341,16 +8350,16 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="34"/>
       <c r="J18" s="117">
         <v>0.4</v>
@@ -8370,10 +8379,10 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="148" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="43" t="s">
@@ -8391,7 +8400,7 @@
       <c r="J19" s="115">
         <v>1</v>
       </c>
-      <c r="K19" s="170">
+      <c r="K19" s="138">
         <f>SUM(M19:M20)</f>
         <v>0</v>
       </c>
@@ -8409,8 +8418,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="48" t="s">
         <v>55</v>
       </c>
@@ -8426,7 +8435,7 @@
       <c r="J20" s="115">
         <v>1</v>
       </c>
-      <c r="K20" s="170"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8441,10 +8450,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="145" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -8462,7 +8471,7 @@
       <c r="J21" s="115">
         <v>1</v>
       </c>
-      <c r="K21" s="170">
+      <c r="K21" s="138">
         <f>SUM(M21:M24)</f>
         <v>0</v>
       </c>
@@ -8480,8 +8489,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="82" t="s">
         <v>59</v>
       </c>
@@ -8497,7 +8506,7 @@
       <c r="J22" s="115">
         <v>1</v>
       </c>
-      <c r="K22" s="170"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8512,8 +8521,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="43" t="s">
         <v>96</v>
       </c>
@@ -8529,7 +8538,7 @@
       <c r="J23" s="115">
         <v>1</v>
       </c>
-      <c r="K23" s="170"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8544,8 +8553,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="82" t="s">
         <v>97</v>
       </c>
@@ -8561,7 +8570,7 @@
       <c r="J24" s="115">
         <v>1</v>
       </c>
-      <c r="K24" s="170"/>
+      <c r="K24" s="138"/>
       <c r="L24" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8576,10 +8585,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="145" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -8597,7 +8606,7 @@
       <c r="J25" s="115">
         <v>1</v>
       </c>
-      <c r="K25" s="170">
+      <c r="K25" s="138">
         <f>SUM(M25:M27)</f>
         <v>0</v>
       </c>
@@ -8615,8 +8624,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="94" t="s">
         <v>102</v>
       </c>
@@ -8632,7 +8641,7 @@
       <c r="J26" s="115">
         <v>1</v>
       </c>
-      <c r="K26" s="170"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8647,8 +8656,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="57" t="s">
         <v>103</v>
       </c>
@@ -8664,7 +8673,7 @@
       <c r="J27" s="115">
         <v>1</v>
       </c>
-      <c r="K27" s="170"/>
+      <c r="K27" s="138"/>
       <c r="L27" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8679,10 +8688,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="145" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -8700,7 +8709,7 @@
       <c r="J28" s="115">
         <v>1</v>
       </c>
-      <c r="K28" s="170">
+      <c r="K28" s="138">
         <f>SUM(M28:M30)</f>
         <v>0</v>
       </c>
@@ -8718,8 +8727,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="57" t="s">
         <v>66</v>
       </c>
@@ -8735,7 +8744,7 @@
       <c r="J29" s="115">
         <v>1</v>
       </c>
-      <c r="K29" s="170"/>
+      <c r="K29" s="138"/>
       <c r="L29" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8750,8 +8759,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="82" t="s">
         <v>62</v>
       </c>
@@ -8767,7 +8776,7 @@
       <c r="J30" s="115">
         <v>1</v>
       </c>
-      <c r="K30" s="170"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -8782,16 +8791,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="34"/>
       <c r="J31" s="117">
         <v>0.2</v>
@@ -8811,10 +8820,10 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="145" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -8832,7 +8841,7 @@
       <c r="J32" s="116">
         <v>1</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="139">
         <f>SUM(M32:M33)</f>
         <v>0</v>
       </c>
@@ -8850,8 +8859,8 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="56" t="s">
         <v>71</v>
       </c>
@@ -8867,7 +8876,7 @@
       <c r="J33" s="116">
         <v>1</v>
       </c>
-      <c r="K33" s="171"/>
+      <c r="K33" s="139"/>
       <c r="L33" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -8882,10 +8891,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="151" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="57" t="s">
@@ -8903,7 +8912,7 @@
       <c r="J34" s="116">
         <v>1</v>
       </c>
-      <c r="K34" s="171">
+      <c r="K34" s="139">
         <f>SUM(M34:M36)</f>
         <v>0</v>
       </c>
@@ -8921,8 +8930,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="82" t="s">
         <v>74</v>
       </c>
@@ -8938,7 +8947,7 @@
       <c r="J35" s="116">
         <v>1</v>
       </c>
-      <c r="K35" s="171"/>
+      <c r="K35" s="139"/>
       <c r="L35" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -8953,8 +8962,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="57" t="s">
         <v>75</v>
       </c>
@@ -8970,7 +8979,7 @@
       <c r="J36" s="116">
         <v>1</v>
       </c>
-      <c r="K36" s="171"/>
+      <c r="K36" s="139"/>
       <c r="L36" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -8985,10 +8994,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="155" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="82" t="s">
@@ -9006,7 +9015,7 @@
       <c r="J37" s="116">
         <v>1</v>
       </c>
-      <c r="K37" s="171">
+      <c r="K37" s="139">
         <f>SUM(M37:M40)</f>
         <v>0</v>
       </c>
@@ -9024,8 +9033,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="57" t="s">
         <v>79</v>
       </c>
@@ -9041,7 +9050,7 @@
       <c r="J38" s="116">
         <v>1</v>
       </c>
-      <c r="K38" s="171"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -9056,8 +9065,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="82" t="s">
         <v>80</v>
       </c>
@@ -9073,7 +9082,7 @@
       <c r="J39" s="116">
         <v>1</v>
       </c>
-      <c r="K39" s="171"/>
+      <c r="K39" s="139"/>
       <c r="L39" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -9088,8 +9097,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="148"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="57" t="s">
         <v>62</v>
       </c>
@@ -9105,7 +9114,7 @@
       <c r="J40" s="116">
         <v>1</v>
       </c>
-      <c r="K40" s="171"/>
+      <c r="K40" s="139"/>
       <c r="L40" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -9160,7 +9169,7 @@
         <f>(IF(E42&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J42" s="155"/>
+      <c r="J42" s="149"/>
       <c r="K42" s="126"/>
       <c r="L42" s="109"/>
     </row>
@@ -9179,7 +9188,7 @@
         <f>(IF(E43&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J43" s="155"/>
+      <c r="J43" s="149"/>
       <c r="K43" s="126"/>
       <c r="L43" s="109"/>
     </row>
@@ -9188,15 +9197,15 @@
         <v>84</v>
       </c>
       <c r="D44" s="63"/>
-      <c r="E44" s="151" t="str">
+      <c r="E44" s="156" t="str">
         <f>IF(OR(E41&lt;0.5,E42&lt;0.5,E43&lt;0.5),"Tx&lt;50",IF(O41&lt;&gt;33,"Erreur",(K5+K18+K31)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F44" s="151"/>
-      <c r="G44" s="152" t="s">
+      <c r="F44" s="156"/>
+      <c r="G44" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="152"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -9204,81 +9213,81 @@
         <v>87</v>
       </c>
       <c r="D45" s="63"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154" t="s">
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="154"/>
+      <c r="H45" s="159"/>
       <c r="I45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="C46" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="146">
+      <c r="E46" s="152">
         <f>IF(V41&lt;&gt;0,"",E45*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147">
+      <c r="F46" s="152"/>
+      <c r="G46" s="153">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H46" s="147"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
       <c r="I47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
       <c r="A48" s="68"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="137" t="str">
+      <c r="C48" s="163" t="str">
         <f>(IF(O41&gt;33,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
       <c r="I48" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
       <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:13" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
       <c r="I50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
@@ -9293,57 +9302,57 @@
       <c r="I51" s="73"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="74" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="75"/>
-      <c r="E52" s="142" t="s">
+      <c r="E52" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="77"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
       <c r="I53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="77"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="77"/>
     </row>
     <row r="56" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A56" s="143"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="79"/>
-      <c r="E57" s="135">
+      <c r="E57" s="161">
         <v>41892</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="81" t="s">
         <v>106</v>
       </c>
@@ -9356,6 +9365,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="A47:H47"/>
@@ -9370,53 +9426,6 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
@@ -9435,7 +9444,7 @@
   <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -9520,10 +9529,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="163"/>
+      <c r="B4" s="140"/>
       <c r="C4" s="27" t="s">
         <v>26</v>
       </c>
@@ -9557,16 +9566,16 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
       <c r="I5" s="32"/>
       <c r="J5" s="117">
         <v>0.4</v>
@@ -9585,10 +9594,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A6" s="161" t="s">
+      <c r="A6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="143" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -9606,7 +9615,7 @@
       <c r="J6" s="115">
         <v>1</v>
       </c>
-      <c r="K6" s="166">
+      <c r="K6" s="134">
         <f>SUM(M6:M8)</f>
         <v>0</v>
       </c>
@@ -9625,8 +9634,8 @@
       <c r="Q6" s="118"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="165"/>
+      <c r="A7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="87" t="s">
         <v>94</v>
       </c>
@@ -9642,7 +9651,7 @@
       <c r="J7" s="115">
         <v>1</v>
       </c>
-      <c r="K7" s="167"/>
+      <c r="K7" s="135"/>
       <c r="L7" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9657,16 +9666,16 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="165"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
       <c r="I8" s="34" t="str">
         <f>(IF(O8&lt;&gt;1,"◄",""))</f>
         <v>◄</v>
@@ -9674,7 +9683,7 @@
       <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="168"/>
+      <c r="K8" s="136"/>
       <c r="L8" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9689,10 +9698,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="145" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="83" t="s">
@@ -9710,7 +9719,7 @@
       <c r="J9" s="115">
         <v>1</v>
       </c>
-      <c r="K9" s="166">
+      <c r="K9" s="134">
         <f>SUM(M9:M12)</f>
         <v>0</v>
       </c>
@@ -9728,8 +9737,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A10" s="156"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="35" t="s">
         <v>40</v>
       </c>
@@ -9745,7 +9754,7 @@
       <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="167"/>
+      <c r="K10" s="135"/>
       <c r="L10" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9760,8 +9769,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A11" s="156"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="83" t="s">
         <v>41</v>
       </c>
@@ -9777,7 +9786,7 @@
       <c r="J11" s="115">
         <v>1</v>
       </c>
-      <c r="K11" s="167"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9792,8 +9801,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A12" s="156"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="145"/>
       <c r="C12" s="35" t="s">
         <v>42</v>
       </c>
@@ -9809,7 +9818,7 @@
       <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="136"/>
       <c r="L12" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9824,10 +9833,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="145" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="39" t="s">
@@ -9845,7 +9854,7 @@
       <c r="J13" s="115">
         <v>1</v>
       </c>
-      <c r="K13" s="166">
+      <c r="K13" s="134">
         <f>SUM(M13:M15)</f>
         <v>0</v>
       </c>
@@ -9863,8 +9872,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A14" s="159"/>
-      <c r="B14" s="157"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="35" t="s">
         <v>46</v>
       </c>
@@ -9880,7 +9889,7 @@
       <c r="J14" s="115">
         <v>1</v>
       </c>
-      <c r="K14" s="167"/>
+      <c r="K14" s="135"/>
       <c r="L14" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9895,8 +9904,8 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A15" s="159"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="145"/>
       <c r="C15" s="39" t="s">
         <v>47</v>
       </c>
@@ -9912,7 +9921,7 @@
       <c r="J15" s="115">
         <v>1</v>
       </c>
-      <c r="K15" s="168"/>
+      <c r="K15" s="136"/>
       <c r="L15" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9927,10 +9936,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="157" t="s">
+      <c r="B16" s="145" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -9948,7 +9957,7 @@
       <c r="J16" s="115">
         <v>1</v>
       </c>
-      <c r="K16" s="169">
+      <c r="K16" s="137">
         <f>SUM(M16:M17)</f>
         <v>0</v>
       </c>
@@ -9966,8 +9975,8 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="157"/>
+      <c r="A17" s="142"/>
+      <c r="B17" s="145"/>
       <c r="C17" s="39" t="s">
         <v>51</v>
       </c>
@@ -9983,7 +9992,7 @@
       <c r="J17" s="115">
         <v>1</v>
       </c>
-      <c r="K17" s="170"/>
+      <c r="K17" s="138"/>
       <c r="L17" s="111">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -9998,16 +10007,16 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="34"/>
       <c r="J18" s="117">
         <v>0.4</v>
@@ -10027,10 +10036,10 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="162" t="s">
+      <c r="B19" s="148" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="43" t="s">
@@ -10048,7 +10057,7 @@
       <c r="J19" s="115">
         <v>1</v>
       </c>
-      <c r="K19" s="170">
+      <c r="K19" s="138">
         <f>SUM(M19:M20)</f>
         <v>0</v>
       </c>
@@ -10066,8 +10075,8 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A20" s="156"/>
-      <c r="B20" s="162"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="48" t="s">
         <v>55</v>
       </c>
@@ -10083,7 +10092,7 @@
       <c r="J20" s="115">
         <v>1</v>
       </c>
-      <c r="K20" s="170"/>
+      <c r="K20" s="138"/>
       <c r="L20" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10098,10 +10107,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="144" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="145" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="43" t="s">
@@ -10119,7 +10128,7 @@
       <c r="J21" s="115">
         <v>1</v>
       </c>
-      <c r="K21" s="170">
+      <c r="K21" s="138">
         <f>SUM(M21:M24)</f>
         <v>0</v>
       </c>
@@ -10137,8 +10146,8 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="145"/>
       <c r="C22" s="82" t="s">
         <v>59</v>
       </c>
@@ -10154,7 +10163,7 @@
       <c r="J22" s="115">
         <v>1</v>
       </c>
-      <c r="K22" s="170"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10169,8 +10178,8 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A23" s="156"/>
-      <c r="B23" s="157"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="145"/>
       <c r="C23" s="43" t="s">
         <v>96</v>
       </c>
@@ -10186,7 +10195,7 @@
       <c r="J23" s="115">
         <v>1</v>
       </c>
-      <c r="K23" s="170"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10201,8 +10210,8 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="157"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="82" t="s">
         <v>97</v>
       </c>
@@ -10218,7 +10227,7 @@
       <c r="J24" s="115">
         <v>1</v>
       </c>
-      <c r="K24" s="170"/>
+      <c r="K24" s="138"/>
       <c r="L24" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10233,10 +10242,10 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="145" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -10254,7 +10263,7 @@
       <c r="J25" s="115">
         <v>1</v>
       </c>
-      <c r="K25" s="170">
+      <c r="K25" s="138">
         <f>SUM(M25:M27)</f>
         <v>0</v>
       </c>
@@ -10272,8 +10281,8 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A26" s="156"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="145"/>
       <c r="C26" s="94" t="s">
         <v>102</v>
       </c>
@@ -10289,7 +10298,7 @@
       <c r="J26" s="115">
         <v>1</v>
       </c>
-      <c r="K26" s="170"/>
+      <c r="K26" s="138"/>
       <c r="L26" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10304,8 +10313,8 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="57" t="s">
         <v>103</v>
       </c>
@@ -10321,7 +10330,7 @@
       <c r="J27" s="115">
         <v>1</v>
       </c>
-      <c r="K27" s="170"/>
+      <c r="K27" s="138"/>
       <c r="L27" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10336,10 +10345,10 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="145" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="82" t="s">
@@ -10357,7 +10366,7 @@
       <c r="J28" s="115">
         <v>1</v>
       </c>
-      <c r="K28" s="170">
+      <c r="K28" s="138">
         <f>SUM(M28:M30)</f>
         <v>0</v>
       </c>
@@ -10375,8 +10384,8 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="144"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="57" t="s">
         <v>66</v>
       </c>
@@ -10392,7 +10401,7 @@
       <c r="J29" s="115">
         <v>1</v>
       </c>
-      <c r="K29" s="170"/>
+      <c r="K29" s="138"/>
       <c r="L29" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10407,8 +10416,8 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="157"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="82" t="s">
         <v>62</v>
       </c>
@@ -10424,7 +10433,7 @@
       <c r="J30" s="115">
         <v>1</v>
       </c>
-      <c r="K30" s="170"/>
+      <c r="K30" s="138"/>
       <c r="L30" s="111">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -10439,16 +10448,16 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="34"/>
       <c r="J31" s="117">
         <v>0.2</v>
@@ -10468,10 +10477,10 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="145" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="57" t="s">
@@ -10489,7 +10498,7 @@
       <c r="J32" s="116">
         <v>1</v>
       </c>
-      <c r="K32" s="171">
+      <c r="K32" s="139">
         <f>SUM(M32:M33)</f>
         <v>0</v>
       </c>
@@ -10507,8 +10516,8 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A33" s="156"/>
-      <c r="B33" s="157"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="56" t="s">
         <v>71</v>
       </c>
@@ -10524,7 +10533,7 @@
       <c r="J33" s="116">
         <v>1</v>
       </c>
-      <c r="K33" s="171"/>
+      <c r="K33" s="139"/>
       <c r="L33" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -10539,10 +10548,10 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="151" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="57" t="s">
@@ -10560,7 +10569,7 @@
       <c r="J34" s="116">
         <v>1</v>
       </c>
-      <c r="K34" s="171">
+      <c r="K34" s="139">
         <f>SUM(M34:M36)</f>
         <v>0</v>
       </c>
@@ -10578,8 +10587,8 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="82" t="s">
         <v>74</v>
       </c>
@@ -10595,7 +10604,7 @@
       <c r="J35" s="116">
         <v>1</v>
       </c>
-      <c r="K35" s="171"/>
+      <c r="K35" s="139"/>
       <c r="L35" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -10610,8 +10619,8 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="57" t="s">
         <v>75</v>
       </c>
@@ -10627,7 +10636,7 @@
       <c r="J36" s="116">
         <v>1</v>
       </c>
-      <c r="K36" s="171"/>
+      <c r="K36" s="139"/>
       <c r="L36" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -10642,10 +10651,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="155" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="82" t="s">
@@ -10663,7 +10672,7 @@
       <c r="J37" s="116">
         <v>1</v>
       </c>
-      <c r="K37" s="171">
+      <c r="K37" s="139">
         <f>SUM(M37:M40)</f>
         <v>0</v>
       </c>
@@ -10681,8 +10690,8 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="148"/>
-      <c r="B38" s="149"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="155"/>
       <c r="C38" s="57" t="s">
         <v>79</v>
       </c>
@@ -10698,7 +10707,7 @@
       <c r="J38" s="116">
         <v>1</v>
       </c>
-      <c r="K38" s="171"/>
+      <c r="K38" s="139"/>
       <c r="L38" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -10713,8 +10722,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="148"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="82" t="s">
         <v>80</v>
       </c>
@@ -10730,7 +10739,7 @@
       <c r="J39" s="116">
         <v>1</v>
       </c>
-      <c r="K39" s="171"/>
+      <c r="K39" s="139"/>
       <c r="L39" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -10745,8 +10754,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="148"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="57" t="s">
         <v>62</v>
       </c>
@@ -10762,7 +10771,7 @@
       <c r="J40" s="116">
         <v>1</v>
       </c>
-      <c r="K40" s="171"/>
+      <c r="K40" s="139"/>
       <c r="L40" s="111">
         <f t="shared" si="10"/>
         <v>1</v>
@@ -10817,7 +10826,7 @@
         <f>(IF(E42&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J42" s="155"/>
+      <c r="J42" s="149"/>
       <c r="K42" s="126"/>
       <c r="L42" s="109"/>
     </row>
@@ -10836,7 +10845,7 @@
         <f>(IF(E43&lt;0.5,"◄",""))</f>
         <v/>
       </c>
-      <c r="J43" s="155"/>
+      <c r="J43" s="149"/>
       <c r="K43" s="126"/>
       <c r="L43" s="109"/>
     </row>
@@ -10845,15 +10854,15 @@
         <v>84</v>
       </c>
       <c r="D44" s="63"/>
-      <c r="E44" s="151" t="str">
+      <c r="E44" s="156" t="str">
         <f>IF(OR(E41&lt;0.5,E42&lt;0.5,E43&lt;0.5),"Tx&lt;50",IF(O41&lt;&gt;33,"Erreur",(K5+K18+K31)))</f>
         <v>Erreur</v>
       </c>
-      <c r="F44" s="151"/>
-      <c r="G44" s="152" t="s">
+      <c r="F44" s="156"/>
+      <c r="G44" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="152"/>
+      <c r="H44" s="157"/>
       <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
@@ -10861,81 +10870,81 @@
         <v>87</v>
       </c>
       <c r="D45" s="63"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="154" t="s">
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="154"/>
+      <c r="H45" s="159"/>
       <c r="I45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="C46" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="146">
+      <c r="E46" s="152">
         <f>IF(V41&lt;&gt;0,"",E45*'Identification projet'!B5)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="146"/>
-      <c r="G46" s="147">
+      <c r="F46" s="152"/>
+      <c r="G46" s="153">
         <f>(20*'Identification projet'!B5)</f>
         <v>120</v>
       </c>
-      <c r="H46" s="147"/>
+      <c r="H46" s="153"/>
       <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A47" s="136" t="s">
+      <c r="A47" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
       <c r="I47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="14.1" customHeight="1" thickBot="1">
       <c r="A48" s="68"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="137" t="str">
+      <c r="C48" s="163" t="str">
         <f>(IF(O41&gt;33,"ATTENTION. Erreur de saisie : cocher une seule colonne par ligne ! Voir repères ◄ à droite de la grille.",""))</f>
         <v/>
       </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="163"/>
+      <c r="H48" s="163"/>
       <c r="I48" s="65" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="138"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
       <c r="I49" s="69"/>
     </row>
     <row r="50" spans="1:13" ht="84.75" customHeight="1" thickBot="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
+      <c r="F50" s="166"/>
+      <c r="G50" s="166"/>
+      <c r="H50" s="166"/>
       <c r="I50" s="70"/>
     </row>
     <row r="51" spans="1:13" ht="7.5" customHeight="1" thickBot="1">
@@ -10950,57 +10959,57 @@
       <c r="I51" s="73"/>
     </row>
     <row r="52" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="141"/>
+      <c r="B52" s="167"/>
       <c r="C52" s="74" t="s">
         <v>92</v>
       </c>
       <c r="D52" s="75"/>
-      <c r="E52" s="142" t="s">
+      <c r="E52" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
       <c r="I52" s="76"/>
     </row>
     <row r="53" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A53" s="143"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="169"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="77"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
       <c r="I53" s="78"/>
     </row>
     <row r="54" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A54" s="143"/>
-      <c r="B54" s="143"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="77"/>
     </row>
     <row r="55" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A55" s="145"/>
-      <c r="B55" s="145"/>
+      <c r="A55" s="171"/>
+      <c r="B55" s="171"/>
       <c r="C55" s="77"/>
     </row>
     <row r="56" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A56" s="143"/>
-      <c r="B56" s="143"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="77"/>
     </row>
     <row r="57" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A57" s="134"/>
-      <c r="B57" s="134"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="160"/>
       <c r="C57" s="79"/>
-      <c r="E57" s="135">
+      <c r="E57" s="161">
         <v>41892</v>
       </c>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="81" t="s">
         <v>106</v>
       </c>
@@ -11013,6 +11022,53 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="61">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="K37:K40"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="E57:H57"/>
     <mergeCell ref="A47:H47"/>
@@ -11027,53 +11083,6 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="K37:K40"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.27569444444444446" right="0.19652777777777777" top="0.12986111111111112" bottom="0.15763888888888888" header="0.51180555555555551" footer="0.15763888888888888"/>
